--- a/Data/Processed/Angiosperms/missing_powo_ipni/Lentibulariaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Lentibulariaceae.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -7397,7 +7397,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
